--- a/biology/Zoologie/Corynorhinus/Corynorhinus.xlsx
+++ b/biology/Zoologie/Corynorhinus/Corynorhinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corynorhinus est un genre de chauves-souris de la famille des Vespertilionidae.
 </t>
@@ -511,13 +523,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (15 janvier 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (15 janvier 2018) :
 Corynorhinus mexicanus G. M. Allen, 1916
 Corynorhinus rafinesquii (Lesson, 1827)
-Corynorhinus townsendii (Cooper, 1837) - Oreillard de Townsend[2]
-Selon Mammal Species of the World (version 3, 2005)  (15 janvier 2018)[3] :
+Corynorhinus townsendii (Cooper, 1837) - Oreillard de Townsend
+Selon Mammal Species of the World (version 3, 2005)  (15 janvier 2018) :
 Corynorhinus mexicanus
 Corynorhinus rafinesquii
 sous-espèce Corynorhinus rafinesquii macrotis
@@ -555,7 +569,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Allen, 1865 : On a New Genus of Vespertilionidæ.  Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 17, p. 173-175(texte intégral).</t>
         </is>
